--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0b08kx/mobile-app-automation-poc-sk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E05149-719B-E04E-9ED4-2E162B5F77F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE3BE61-DBC1-2E44-8360-1C5015336EE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{210B09AC-EC90-4347-BD1D-9554033DD277}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -94,6 +94,18 @@
     <t>1. App is launched 
 2. User sees selected card modal
 3. Static text validation is completed</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Image view for card is not clickable</t>
   </si>
 </sst>
 </file>
@@ -109,15 +121,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,16 +155,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D7C41B-9E84-8E48-8C84-7781C260FE90}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,90 +515,101 @@
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
